--- a/submission/table_S1_cfu_kruskal-wallis.xlsx
+++ b/submission/table_S1_cfu_kruskal-wallis.xlsx
@@ -427,22 +427,22 @@
         </is>
       </c>
       <c r="F2">
-        <v>3937.5</v>
+        <v>2000</v>
       </c>
       <c r="G2">
-        <v>27444.44444444445</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>427714.2857142857</v>
+        <v>195000</v>
       </c>
       <c r="I2">
-        <v>3487.5</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2408000</v>
+        <v>100000</v>
       </c>
       <c r="K2">
-        <v>151666.6666666667</v>
+        <v>17500</v>
       </c>
       <c r="L2">
         <v>0.001150545166448277</v>
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="F3">
-        <v>2342.857142857143</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>26875</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>872714.2857142857</v>
+        <v>92000</v>
       </c>
       <c r="I3">
-        <v>914.2857142857143</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17186666.66666667</v>
+        <v>340000</v>
       </c>
       <c r="K3">
         <v>146500</v>
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="F4">
-        <v>6083.333333333333</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>644.4444444444445</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>159800</v>
+        <v>65000</v>
       </c>
       <c r="I4">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>398800</v>
+        <v>12000</v>
       </c>
       <c r="K4">
-        <v>1689357.142857143</v>
+        <v>1400</v>
       </c>
       <c r="L4">
         <v>0.002072937530651385</v>
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="F5">
-        <v>106666.6666666667</v>
+        <v>60000</v>
       </c>
       <c r="G5">
-        <v>312500</v>
+        <v>180000</v>
       </c>
       <c r="H5">
-        <v>4352857.142857143</v>
+        <v>4800000</v>
       </c>
       <c r="I5">
-        <v>86000</v>
+        <v>120000</v>
       </c>
       <c r="J5">
-        <v>8900000</v>
+        <v>1305000</v>
       </c>
       <c r="K5">
-        <v>4993333.333333333</v>
+        <v>1770000</v>
       </c>
       <c r="L5">
         <v>0.007526674065253564</v>
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="F6">
-        <v>1128571.428571429</v>
+        <v>400000</v>
       </c>
       <c r="G6">
-        <v>1488750</v>
+        <v>1235000</v>
       </c>
       <c r="H6">
-        <v>43289999.99999999</v>
+        <v>22100000</v>
       </c>
       <c r="I6">
-        <v>5940000</v>
+        <v>960000</v>
       </c>
       <c r="J6">
-        <v>18264000</v>
+        <v>400000</v>
       </c>
       <c r="K6">
-        <v>12352857.14285714</v>
+        <v>9670000</v>
       </c>
       <c r="L6">
         <v>0.01921362963857584</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>176000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0.05088533323208011</v>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F8">
-        <v>16426666.66666667</v>
+        <v>19800000</v>
       </c>
       <c r="G8">
-        <v>15384000</v>
+        <v>6300000</v>
       </c>
       <c r="H8">
         <v>71400000</v>
       </c>
       <c r="I8">
-        <v>18382000</v>
+        <v>420000</v>
       </c>
       <c r="K8">
-        <v>40666666.66666666</v>
+        <v>52200000</v>
       </c>
       <c r="L8">
         <v>0.1419109549113327</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="F9">
-        <v>66875000</v>
+        <v>59500000</v>
       </c>
       <c r="G9">
-        <v>90111111.1111111</v>
+        <v>53000000</v>
       </c>
       <c r="H9">
-        <v>145800000</v>
+        <v>126000000</v>
       </c>
       <c r="I9">
-        <v>30000000</v>
+        <v>33000000</v>
       </c>
       <c r="J9">
-        <v>57000000</v>
+        <v>38500000</v>
       </c>
       <c r="K9">
-        <v>45625000</v>
+        <v>22000000</v>
       </c>
       <c r="L9">
         <v>0.1497109258422531</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13714.28571428571</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0.1497109258422531</v>
